--- a/Planificación S4.xlsx
+++ b/Planificación S4.xlsx
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>44984.0</v>
+        <v>44991.0</v>
       </c>
       <c r="D2" s="9"/>
       <c r="J2" s="10"/>
@@ -429,31 +429,31 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12">
         <f>C2</f>
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="D3" s="13">
         <f>C2+1</f>
-        <v>44985</v>
+        <v>44992</v>
       </c>
       <c r="E3" s="13">
         <f>C2+2</f>
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c r="F3" s="13">
         <f>C2+3</f>
-        <v>44987</v>
+        <v>44994</v>
       </c>
       <c r="G3" s="13">
         <f>C2+4</f>
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="H3" s="13">
         <f>C2+5</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="I3" s="13">
         <f>C2+6</f>
-        <v>44990</v>
+        <v>44997</v>
       </c>
       <c r="J3" s="11"/>
     </row>
